--- a/gun-low/Excel/TRAILING_拖尾表.xlsx
+++ b/gun-low/Excel/TRAILING_拖尾表.xlsx
@@ -34,10 +34,24 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -71,7 +85,21 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -97,7 +125,7 @@
   <cellStyleXfs count="1">
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -105,6 +133,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -432,29 +466,30 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="12" min="12" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="13" min="13" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="14" min="14" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="15" min="15" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="16" min="16" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="17" min="17" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="18" min="18" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="19" min="19" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="20" min="20" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="12" min="12" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="13" min="13" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="14" min="14" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="15" min="15" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="16" min="16" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="17" min="17" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="18" min="18" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="19" min="19" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="20" min="20" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="21" min="21" style="0" width="17"/>
   </cols>
   <sheetData>
-    <row customHeight="true" ht="23" r="1">
+    <row customHeight="true" ht="25" r="1">
       <c r="A1" s="1" t="str">
         <v>int</v>
       </c>
@@ -470,7 +505,9 @@
       <c r="E1" s="1" t="str">
         <v>string</v>
       </c>
-      <c r="F1" s="1"/>
+      <c r="F1" s="1" t="str">
+        <v>string</v>
+      </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -485,8 +522,9 @@
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
-    </row>
-    <row customHeight="true" ht="23" r="2">
+      <c r="U1" s="1"/>
+    </row>
+    <row customHeight="true" ht="25" r="2">
       <c r="A2" s="1" t="str">
         <v>ID</v>
       </c>
@@ -502,7 +540,9 @@
       <c r="E2" s="1" t="str">
         <v>NAME</v>
       </c>
-      <c r="F2" s="1"/>
+      <c r="F2" s="1" t="str">
+        <v>DESC</v>
+      </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -517,15 +557,16 @@
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
-    </row>
-    <row customHeight="true" ht="23" r="3">
+      <c r="U2" s="1"/>
+    </row>
+    <row customHeight="true" ht="25" r="3">
       <c r="A3" s="1" t="str">
         <v>唯一ID</v>
       </c>
       <c r="B3" s="1" t="str">
         <v>拖尾Guid</v>
       </c>
-      <c r="C3" s="2" t="str">
+      <c r="C3" s="4" t="str">
         <v>0-免费
 1-金币|钻石
 2-钻石</v>
@@ -537,7 +578,9 @@
       <c r="E3" s="1" t="str">
         <v>名字</v>
       </c>
-      <c r="F3" s="1"/>
+      <c r="F3" s="1" t="str">
+        <v>名字</v>
+      </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -552,13 +595,16 @@
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
-    </row>
-    <row customHeight="true" ht="23" r="4">
+      <c r="U3" s="1"/>
+    </row>
+    <row customHeight="true" ht="25" r="4">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="E4" s="3" t="str">
+        <v>Language</v>
+      </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -574,8 +620,9 @@
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
-    </row>
-    <row customHeight="true" ht="23" r="5">
+      <c r="U4" s="1"/>
+    </row>
+    <row customHeight="true" ht="25" r="5">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -588,10 +635,12 @@
       <c r="D5" s="1" t="str">
         <v>1|8888</v>
       </c>
-      <c r="E5" s="1" t="str">
+      <c r="E5" s="2" t="str">
+        <v>SmokeTrail</v>
+      </c>
+      <c r="F5" s="1" t="str">
         <v>烟雾拖尾</v>
       </c>
-      <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -606,8 +655,9 @@
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
-    </row>
-    <row customHeight="true" ht="23" r="6">
+      <c r="U5" s="1"/>
+    </row>
+    <row customHeight="true" ht="25" r="6">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -620,10 +670,12 @@
       <c r="D6" s="1" t="str">
         <v>1|8888</v>
       </c>
-      <c r="E6" s="1" t="str">
+      <c r="E6" s="2" t="str">
+        <v>SmokeTrail</v>
+      </c>
+      <c r="F6" s="1" t="str">
         <v>烟雾拖尾</v>
       </c>
-      <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -638,8 +690,9 @@
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
-    </row>
-    <row customHeight="true" ht="23" r="7">
+      <c r="U6" s="1"/>
+    </row>
+    <row customHeight="true" ht="25" r="7">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -652,10 +705,12 @@
       <c r="D7" s="1" t="str">
         <v>1|8888</v>
       </c>
-      <c r="E7" s="1" t="str">
+      <c r="E7" s="2" t="str">
+        <v>SmokeTrail</v>
+      </c>
+      <c r="F7" s="1" t="str">
         <v>烟雾拖尾</v>
       </c>
-      <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -670,8 +725,9 @@
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
-    </row>
-    <row customHeight="true" ht="23" r="8">
+      <c r="U7" s="1"/>
+    </row>
+    <row customHeight="true" ht="25" r="8">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -684,10 +740,12 @@
       <c r="D8" s="1" t="str">
         <v>1|8888</v>
       </c>
-      <c r="E8" s="1" t="str">
+      <c r="E8" s="2" t="str">
+        <v>ParticleTailing</v>
+      </c>
+      <c r="F8" s="1" t="str">
         <v>粒子拖尾</v>
       </c>
-      <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -702,8 +760,9 @@
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
-    </row>
-    <row customHeight="true" ht="23" r="9">
+      <c r="U8" s="1"/>
+    </row>
+    <row customHeight="true" ht="25" r="9">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -716,10 +775,12 @@
       <c r="D9" s="1" t="str">
         <v>1|8888</v>
       </c>
-      <c r="E9" s="1" t="str">
+      <c r="E9" s="2" t="str">
+        <v>SmokeTrail</v>
+      </c>
+      <c r="F9" s="1" t="str">
         <v>烟雾拖尾</v>
       </c>
-      <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -734,8 +795,9 @@
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
-    </row>
-    <row customHeight="true" ht="23" r="10">
+      <c r="U9" s="1"/>
+    </row>
+    <row customHeight="true" ht="25" r="10">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -748,10 +810,12 @@
       <c r="D10" s="1" t="str">
         <v>1|8888</v>
       </c>
-      <c r="E10" s="1" t="str">
+      <c r="E10" s="2" t="str">
+        <v>BeamTrailing</v>
+      </c>
+      <c r="F10" s="1" t="str">
         <v>光束拖尾</v>
       </c>
-      <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -766,8 +830,9 @@
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
-    </row>
-    <row customHeight="true" ht="23" r="11">
+      <c r="U10" s="1"/>
+    </row>
+    <row customHeight="true" ht="25" r="11">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -780,10 +845,12 @@
       <c r="D11" s="1" t="str">
         <v>1|8888</v>
       </c>
-      <c r="E11" s="1" t="str">
+      <c r="E11" s="2" t="str">
+        <v>BeamTrailing</v>
+      </c>
+      <c r="F11" s="1" t="str">
         <v>光束拖尾</v>
       </c>
-      <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -798,8 +865,9 @@
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
-    </row>
-    <row customHeight="true" ht="23" r="12">
+      <c r="U11" s="1"/>
+    </row>
+    <row customHeight="true" ht="25" r="12">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -812,10 +880,12 @@
       <c r="D12" s="1" t="str">
         <v>1|8888</v>
       </c>
-      <c r="E12" s="1" t="str">
+      <c r="E12" s="2" t="str">
+        <v>BeamTrailing</v>
+      </c>
+      <c r="F12" s="1" t="str">
         <v>光束拖尾</v>
       </c>
-      <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -830,8 +900,9 @@
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
-    </row>
-    <row customHeight="true" ht="23" r="13">
+      <c r="U12" s="1"/>
+    </row>
+    <row customHeight="true" ht="25" r="13">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -844,10 +915,12 @@
       <c r="D13" s="1" t="str">
         <v>1|8888</v>
       </c>
-      <c r="E13" s="1" t="str">
+      <c r="E13" s="2" t="str">
+        <v>SmokeTrail</v>
+      </c>
+      <c r="F13" s="1" t="str">
         <v>烟雾拖尾</v>
       </c>
-      <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -862,8 +935,9 @@
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
-    </row>
-    <row customHeight="true" ht="23" r="14">
+      <c r="U13" s="1"/>
+    </row>
+    <row customHeight="true" ht="25" r="14">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -876,10 +950,12 @@
       <c r="D14" s="1" t="str">
         <v>1|8888</v>
       </c>
-      <c r="E14" s="1" t="str">
+      <c r="E14" s="2" t="str">
+        <v>SmokeTrail</v>
+      </c>
+      <c r="F14" s="1" t="str">
         <v>烟雾拖尾</v>
       </c>
-      <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -894,8 +970,9 @@
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
-    </row>
-    <row customHeight="true" ht="23" r="15">
+      <c r="U14" s="1"/>
+    </row>
+    <row customHeight="true" ht="25" r="15">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -908,10 +985,12 @@
       <c r="D15" s="1" t="str">
         <v>1|8888</v>
       </c>
-      <c r="E15" s="1" t="str">
+      <c r="E15" s="2" t="str">
+        <v>SmokeTrail</v>
+      </c>
+      <c r="F15" s="1" t="str">
         <v>烟雾拖尾</v>
       </c>
-      <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -926,8 +1005,9 @@
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
-    </row>
-    <row customHeight="true" ht="23" r="16">
+      <c r="U15" s="1"/>
+    </row>
+    <row customHeight="true" ht="25" r="16">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -940,10 +1020,12 @@
       <c r="D16" s="1" t="str">
         <v>1|8888</v>
       </c>
-      <c r="E16" s="1" t="str">
+      <c r="E16" s="2" t="str">
+        <v>SmokeTrail</v>
+      </c>
+      <c r="F16" s="1" t="str">
         <v>烟雾拖尾</v>
       </c>
-      <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -958,8 +1040,9 @@
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
-    </row>
-    <row customHeight="true" ht="23" r="17">
+      <c r="U16" s="1"/>
+    </row>
+    <row customHeight="true" ht="25" r="17">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -972,10 +1055,12 @@
       <c r="D17" s="1" t="str">
         <v>1|8888</v>
       </c>
-      <c r="E17" s="1" t="str">
+      <c r="E17" s="2" t="str">
+        <v>BeamTrailing</v>
+      </c>
+      <c r="F17" s="1" t="str">
         <v>光束拖尾</v>
       </c>
-      <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -990,8 +1075,9 @@
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
-    </row>
-    <row customHeight="true" ht="23" r="18">
+      <c r="U17" s="1"/>
+    </row>
+    <row customHeight="true" ht="25" r="18">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -1004,10 +1090,12 @@
       <c r="D18" s="1" t="str">
         <v>1|8888</v>
       </c>
-      <c r="E18" s="1" t="str">
+      <c r="E18" s="2" t="str">
+        <v>BeamTrailing</v>
+      </c>
+      <c r="F18" s="1" t="str">
         <v>光束拖尾</v>
       </c>
-      <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -1022,8 +1110,9 @@
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
-    </row>
-    <row customHeight="true" ht="23" r="19">
+      <c r="U18" s="1"/>
+    </row>
+    <row customHeight="true" ht="25" r="19">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -1036,10 +1125,12 @@
       <c r="D19" s="1" t="str">
         <v>1|8888</v>
       </c>
-      <c r="E19" s="1" t="str">
+      <c r="E19" s="2" t="str">
+        <v>BeamTrailing</v>
+      </c>
+      <c r="F19" s="1" t="str">
         <v>光束拖尾</v>
       </c>
-      <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -1054,8 +1145,9 @@
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
-    </row>
-    <row customHeight="true" ht="23" r="20">
+      <c r="U19" s="1"/>
+    </row>
+    <row customHeight="true" ht="25" r="20">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -1068,10 +1160,12 @@
       <c r="D20" s="1" t="str">
         <v>1|8888</v>
       </c>
-      <c r="E20" s="1" t="str">
+      <c r="E20" s="2" t="str">
+        <v>BeamTrailing</v>
+      </c>
+      <c r="F20" s="1" t="str">
         <v>光束拖尾</v>
       </c>
-      <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -1086,8 +1180,9 @@
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
-    </row>
-    <row customHeight="true" ht="23" r="21">
+      <c r="U20" s="1"/>
+    </row>
+    <row customHeight="true" ht="25" r="21">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -1100,10 +1195,12 @@
       <c r="D21" s="1" t="str">
         <v>1|8888</v>
       </c>
-      <c r="E21" s="1" t="str">
+      <c r="E21" s="2" t="str">
+        <v>BeamTrailing</v>
+      </c>
+      <c r="F21" s="1" t="str">
         <v>光束拖尾</v>
       </c>
-      <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -1118,8 +1215,9 @@
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
-    </row>
-    <row customHeight="true" ht="23" r="22">
+      <c r="U21" s="1"/>
+    </row>
+    <row customHeight="true" ht="25" r="22">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -1132,10 +1230,12 @@
       <c r="D22" s="1" t="str">
         <v>1|8888</v>
       </c>
-      <c r="E22" s="1" t="str">
+      <c r="E22" s="2" t="str">
+        <v>BeamTrailing</v>
+      </c>
+      <c r="F22" s="1" t="str">
         <v>光束拖尾</v>
       </c>
-      <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -1150,8 +1250,9 @@
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
-    </row>
-    <row customHeight="true" ht="23" r="23">
+      <c r="U22" s="1"/>
+    </row>
+    <row customHeight="true" ht="25" r="23">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -1164,10 +1265,12 @@
       <c r="D23" s="1" t="str">
         <v>1|8888</v>
       </c>
-      <c r="E23" s="1" t="str">
+      <c r="E23" s="2" t="str">
+        <v>BeamTrailing</v>
+      </c>
+      <c r="F23" s="1" t="str">
         <v>光束拖尾</v>
       </c>
-      <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -1182,8 +1285,9 @@
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
-    </row>
-    <row customHeight="true" ht="23" r="24">
+      <c r="U23" s="1"/>
+    </row>
+    <row customHeight="true" ht="25" r="24">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -1196,10 +1300,12 @@
       <c r="D24" s="1" t="str">
         <v>1|8888</v>
       </c>
-      <c r="E24" s="1" t="str">
+      <c r="E24" s="2" t="str">
+        <v>BeamTrailing</v>
+      </c>
+      <c r="F24" s="1" t="str">
         <v>光束拖尾</v>
       </c>
-      <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -1214,8 +1320,9 @@
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
-    </row>
-    <row customHeight="true" ht="23" r="25">
+      <c r="U24" s="1"/>
+    </row>
+    <row customHeight="true" ht="25" r="25">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -1228,10 +1335,12 @@
       <c r="D25" s="1" t="str">
         <v>1|8888</v>
       </c>
-      <c r="E25" s="1" t="str">
+      <c r="E25" s="2" t="str">
+        <v>SmokeTrail</v>
+      </c>
+      <c r="F25" s="1" t="str">
         <v>烟雾拖尾</v>
       </c>
-      <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -1246,8 +1355,9 @@
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
-    </row>
-    <row customHeight="true" ht="23" r="26">
+      <c r="U25" s="1"/>
+    </row>
+    <row customHeight="true" ht="25" r="26">
       <c r="A26" s="1">
         <v>22</v>
       </c>
@@ -1260,10 +1370,12 @@
       <c r="D26" s="1" t="str">
         <v>1|8888</v>
       </c>
-      <c r="E26" s="1" t="str">
+      <c r="E26" s="2" t="str">
+        <v>Tail</v>
+      </c>
+      <c r="F26" s="1" t="str">
         <v>拖尾</v>
       </c>
-      <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -1278,8 +1390,9 @@
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
-    </row>
-    <row customHeight="true" ht="23" r="27">
+      <c r="U26" s="1"/>
+    </row>
+    <row customHeight="true" ht="25" r="27">
       <c r="A27" s="1">
         <v>23</v>
       </c>
@@ -1292,10 +1405,12 @@
       <c r="D27" s="1" t="str">
         <v>1|8888</v>
       </c>
-      <c r="E27" s="1" t="str">
+      <c r="E27" s="2" t="str">
+        <v>WaterTailing</v>
+      </c>
+      <c r="F27" s="1" t="str">
         <v>水拖尾</v>
       </c>
-      <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -1310,8 +1425,9 @@
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
-    </row>
-    <row customHeight="true" ht="23" r="28">
+      <c r="U27" s="1"/>
+    </row>
+    <row customHeight="true" ht="25" r="28">
       <c r="A28" s="1">
         <v>24</v>
       </c>
@@ -1324,10 +1440,12 @@
       <c r="D28" s="1" t="str">
         <v>1|8888</v>
       </c>
-      <c r="E28" s="1" t="str">
+      <c r="E28" s="2" t="str">
+        <v>FlameTrailing</v>
+      </c>
+      <c r="F28" s="1" t="str">
         <v>火焰拖尾</v>
       </c>
-      <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -1342,8 +1460,9 @@
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
-    </row>
-    <row customHeight="true" ht="23" r="29">
+      <c r="U28" s="1"/>
+    </row>
+    <row customHeight="true" ht="25" r="29">
       <c r="A29" s="1">
         <v>25</v>
       </c>
@@ -1356,10 +1475,12 @@
       <c r="D29" s="1" t="str">
         <v>1|8888</v>
       </c>
-      <c r="E29" s="1" t="str">
+      <c r="E29" s="2" t="str">
+        <v>SmokeTrail</v>
+      </c>
+      <c r="F29" s="1" t="str">
         <v>烟雾拖尾</v>
       </c>
-      <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
@@ -1374,8 +1495,9 @@
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
-    </row>
-    <row customHeight="true" ht="23" r="30">
+      <c r="U29" s="1"/>
+    </row>
+    <row customHeight="true" ht="25" r="30">
       <c r="A30" s="1">
         <v>26</v>
       </c>
@@ -1388,10 +1510,12 @@
       <c r="D30" s="1" t="str">
         <v>1|8888</v>
       </c>
-      <c r="E30" s="1" t="str">
+      <c r="E30" s="2" t="str">
+        <v>SmokeTrail</v>
+      </c>
+      <c r="F30" s="1" t="str">
         <v>烟雾拖尾</v>
       </c>
-      <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -1406,8 +1530,9 @@
       <c r="R30" s="1"/>
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
-    </row>
-    <row customHeight="true" ht="23" r="31">
+      <c r="U30" s="1"/>
+    </row>
+    <row customHeight="true" ht="25" r="31">
       <c r="A31" s="1">
         <v>27</v>
       </c>
@@ -1420,10 +1545,12 @@
       <c r="D31" s="1" t="str">
         <v>1|8888</v>
       </c>
-      <c r="E31" s="1" t="str">
+      <c r="E31" s="2" t="str">
+        <v>Tail</v>
+      </c>
+      <c r="F31" s="1" t="str">
         <v>拖尾</v>
       </c>
-      <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -1438,8 +1565,9 @@
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
-    </row>
-    <row customHeight="true" ht="23" r="32">
+      <c r="U31" s="1"/>
+    </row>
+    <row customHeight="true" ht="25" r="32">
       <c r="A32" s="1">
         <v>28</v>
       </c>
@@ -1452,10 +1580,12 @@
       <c r="D32" s="1" t="str">
         <v>1|8888</v>
       </c>
-      <c r="E32" s="1" t="str">
+      <c r="E32" s="2" t="str">
+        <v>Tail</v>
+      </c>
+      <c r="F32" s="1" t="str">
         <v>拖尾</v>
       </c>
-      <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -1470,8 +1600,9 @@
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
-    </row>
-    <row customHeight="true" ht="23" r="33">
+      <c r="U32" s="1"/>
+    </row>
+    <row customHeight="true" ht="25" r="33">
       <c r="A33" s="1">
         <v>29</v>
       </c>
@@ -1484,10 +1615,12 @@
       <c r="D33" s="1" t="str">
         <v>1|8888</v>
       </c>
-      <c r="E33" s="1" t="str">
+      <c r="E33" s="2" t="str">
+        <v>BeamTrailing</v>
+      </c>
+      <c r="F33" s="1" t="str">
         <v>光束拖尾</v>
       </c>
-      <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -1502,8 +1635,9 @@
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
-    </row>
-    <row customHeight="true" ht="23" r="34">
+      <c r="U33" s="1"/>
+    </row>
+    <row customHeight="true" ht="25" r="34">
       <c r="A34" s="1">
         <v>30</v>
       </c>
@@ -1516,10 +1650,12 @@
       <c r="D34" s="1" t="str">
         <v>1|8888</v>
       </c>
-      <c r="E34" s="1" t="str">
+      <c r="E34" s="2" t="str">
+        <v>BeamTrailing</v>
+      </c>
+      <c r="F34" s="1" t="str">
         <v>光束拖尾</v>
       </c>
-      <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
@@ -1534,8 +1670,9 @@
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
-    </row>
-    <row customHeight="true" ht="23" r="35">
+      <c r="U34" s="1"/>
+    </row>
+    <row customHeight="true" ht="25" r="35">
       <c r="A35" s="1">
         <v>31</v>
       </c>
@@ -1548,10 +1685,12 @@
       <c r="D35" s="1" t="str">
         <v>1|8888</v>
       </c>
-      <c r="E35" s="1" t="str">
+      <c r="E35" s="2" t="str">
+        <v>SmokeTrail</v>
+      </c>
+      <c r="F35" s="1" t="str">
         <v>烟雾拖尾</v>
       </c>
-      <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
@@ -1566,8 +1705,9 @@
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
-    </row>
-    <row customHeight="true" ht="23" r="36">
+      <c r="U35" s="1"/>
+    </row>
+    <row customHeight="true" ht="25" r="36">
       <c r="A36" s="1">
         <v>32</v>
       </c>
@@ -1580,10 +1720,12 @@
       <c r="D36" s="1" t="str">
         <v>1|8888</v>
       </c>
-      <c r="E36" s="1" t="str">
+      <c r="E36" s="2" t="str">
+        <v>Tail</v>
+      </c>
+      <c r="F36" s="1" t="str">
         <v>拖尾</v>
       </c>
-      <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
@@ -1598,8 +1740,9 @@
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
-    </row>
-    <row customHeight="true" ht="23" r="37">
+      <c r="U36" s="1"/>
+    </row>
+    <row customHeight="true" ht="25" r="37">
       <c r="A37" s="1">
         <v>33</v>
       </c>
@@ -1612,10 +1755,12 @@
       <c r="D37" s="1" t="str">
         <v>1|8888</v>
       </c>
-      <c r="E37" s="1" t="str">
+      <c r="E37" s="2" t="str">
+        <v>BeamTrailing</v>
+      </c>
+      <c r="F37" s="1" t="str">
         <v>光束拖尾</v>
       </c>
-      <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
@@ -1630,8 +1775,9 @@
       <c r="R37" s="1"/>
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
-    </row>
-    <row customHeight="true" ht="23" r="38">
+      <c r="U37" s="1"/>
+    </row>
+    <row customHeight="true" ht="25" r="38">
       <c r="A38" s="1">
         <v>34</v>
       </c>
@@ -1644,10 +1790,12 @@
       <c r="D38" s="1" t="str">
         <v>1|8888</v>
       </c>
-      <c r="E38" s="1" t="str">
+      <c r="E38" s="2" t="str">
+        <v>ThunderTail</v>
+      </c>
+      <c r="F38" s="1" t="str">
         <v>雷拖尾</v>
       </c>
-      <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
@@ -1662,8 +1810,9 @@
       <c r="R38" s="1"/>
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
-    </row>
-    <row customHeight="true" ht="23" r="39">
+      <c r="U38" s="1"/>
+    </row>
+    <row customHeight="true" ht="25" r="39">
       <c r="A39" s="1">
         <v>35</v>
       </c>
@@ -1676,10 +1825,12 @@
       <c r="D39" s="1" t="str">
         <v>1|8888</v>
       </c>
-      <c r="E39" s="1" t="str">
+      <c r="E39" s="2" t="str">
+        <v>RainbowTail</v>
+      </c>
+      <c r="F39" s="1" t="str">
         <v>彩虹拖尾</v>
       </c>
-      <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
@@ -1694,8 +1845,9 @@
       <c r="R39" s="1"/>
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
-    </row>
-    <row customHeight="true" ht="23" r="40">
+      <c r="U39" s="1"/>
+    </row>
+    <row customHeight="true" ht="25" r="40">
       <c r="A40" s="1">
         <v>36</v>
       </c>
@@ -1708,10 +1860,12 @@
       <c r="D40" s="1" t="str">
         <v>1|8888</v>
       </c>
-      <c r="E40" s="1" t="str">
+      <c r="E40" s="2" t="str">
+        <v>TirePrintTailing</v>
+      </c>
+      <c r="F40" s="1" t="str">
         <v>胎印拖尾</v>
       </c>
-      <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
@@ -1726,8 +1880,9 @@
       <c r="R40" s="1"/>
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
-    </row>
-    <row customHeight="true" ht="23" r="41">
+      <c r="U40" s="1"/>
+    </row>
+    <row customHeight="true" ht="25" r="41">
       <c r="A41" s="1">
         <v>37</v>
       </c>
@@ -1740,10 +1895,12 @@
       <c r="D41" s="1" t="str">
         <v>1|8888</v>
       </c>
-      <c r="E41" s="1" t="str">
+      <c r="E41" s="2" t="str">
+        <v>ScrewTail</v>
+      </c>
+      <c r="F41" s="1" t="str">
         <v>螺丝钉拖尾</v>
       </c>
-      <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
@@ -1758,8 +1915,9 @@
       <c r="R41" s="1"/>
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
-    </row>
-    <row customHeight="true" ht="23" r="42">
+      <c r="U41" s="1"/>
+    </row>
+    <row customHeight="true" ht="25" r="42">
       <c r="A42" s="1">
         <v>38</v>
       </c>
@@ -1772,10 +1930,12 @@
       <c r="D42" s="1" t="str">
         <v>1|8888</v>
       </c>
-      <c r="E42" s="1" t="str">
+      <c r="E42" s="2" t="str">
+        <v>FootballTail</v>
+      </c>
+      <c r="F42" s="1" t="str">
         <v>足球拖尾</v>
       </c>
-      <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
@@ -1790,8 +1950,9 @@
       <c r="R42" s="1"/>
       <c r="S42" s="1"/>
       <c r="T42" s="1"/>
-    </row>
-    <row customHeight="true" ht="23" r="43">
+      <c r="U42" s="1"/>
+    </row>
+    <row customHeight="true" ht="25" r="43">
       <c r="A43" s="1">
         <v>39</v>
       </c>
@@ -1804,10 +1965,12 @@
       <c r="D43" s="1" t="str">
         <v>1|8888</v>
       </c>
-      <c r="E43" s="1" t="str">
+      <c r="E43" s="2" t="str">
+        <v>RainbowTail</v>
+      </c>
+      <c r="F43" s="1" t="str">
         <v>彩虹拖尾</v>
       </c>
-      <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
@@ -1822,8 +1985,9 @@
       <c r="R43" s="1"/>
       <c r="S43" s="1"/>
       <c r="T43" s="1"/>
-    </row>
-    <row customHeight="true" ht="23" r="44">
+      <c r="U43" s="1"/>
+    </row>
+    <row customHeight="true" ht="25" r="44">
       <c r="A44" s="1">
         <v>40</v>
       </c>
@@ -1836,10 +2000,12 @@
       <c r="D44" s="1" t="str">
         <v>1|8888</v>
       </c>
-      <c r="E44" s="1" t="str">
+      <c r="E44" s="2" t="str">
+        <v>CandyTail</v>
+      </c>
+      <c r="F44" s="1" t="str">
         <v>糖果拖尾</v>
       </c>
-      <c r="F44" s="1"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
@@ -1854,8 +2020,9 @@
       <c r="R44" s="1"/>
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
-    </row>
-    <row customHeight="true" ht="23" r="45">
+      <c r="U44" s="1"/>
+    </row>
+    <row customHeight="true" ht="25" r="45">
       <c r="A45" s="1">
         <v>41</v>
       </c>
@@ -1868,10 +2035,12 @@
       <c r="D45" s="1" t="str">
         <v>1|8888</v>
       </c>
-      <c r="E45" s="1" t="str">
+      <c r="E45" s="2" t="str">
+        <v>TrophyTail</v>
+      </c>
+      <c r="F45" s="1" t="str">
         <v>奖杯拖尾</v>
       </c>
-      <c r="F45" s="1"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
@@ -1886,8 +2055,9 @@
       <c r="R45" s="1"/>
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
-    </row>
-    <row customHeight="true" ht="23" r="46">
+      <c r="U45" s="1"/>
+    </row>
+    <row customHeight="true" ht="25" r="46">
       <c r="A46" s="1">
         <v>42</v>
       </c>
@@ -1900,10 +2070,12 @@
       <c r="D46" s="1" t="str">
         <v>1|8888</v>
       </c>
-      <c r="E46" s="1" t="str">
+      <c r="E46" s="2" t="str">
+        <v>CrownTail</v>
+      </c>
+      <c r="F46" s="1" t="str">
         <v>皇冠拖尾</v>
       </c>
-      <c r="F46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
@@ -1918,8 +2090,9 @@
       <c r="R46" s="1"/>
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
-    </row>
-    <row customHeight="true" ht="23" r="47">
+      <c r="U46" s="1"/>
+    </row>
+    <row customHeight="true" ht="25" r="47">
       <c r="A47" s="1">
         <v>43</v>
       </c>
@@ -1932,10 +2105,12 @@
       <c r="D47" s="1" t="str">
         <v>1|8888</v>
       </c>
-      <c r="E47" s="1" t="str">
+      <c r="E47" s="2" t="str">
+        <v>LoveTail</v>
+      </c>
+      <c r="F47" s="1" t="str">
         <v>爱心拖尾</v>
       </c>
-      <c r="F47" s="1"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
@@ -1950,8 +2125,9 @@
       <c r="R47" s="1"/>
       <c r="S47" s="1"/>
       <c r="T47" s="1"/>
-    </row>
-    <row customHeight="true" ht="23" r="48">
+      <c r="U47" s="1"/>
+    </row>
+    <row customHeight="true" ht="25" r="48">
       <c r="A48" s="1">
         <v>44</v>
       </c>
@@ -1964,10 +2140,12 @@
       <c r="D48" s="1" t="str">
         <v>1|8888</v>
       </c>
-      <c r="E48" s="1" t="str">
+      <c r="E48" s="2" t="str">
+        <v>SkullTail</v>
+      </c>
+      <c r="F48" s="1" t="str">
         <v>骷髅拖尾</v>
       </c>
-      <c r="F48" s="1"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
@@ -1982,8 +2160,9 @@
       <c r="R48" s="1"/>
       <c r="S48" s="1"/>
       <c r="T48" s="1"/>
-    </row>
-    <row customHeight="true" ht="23" r="49">
+      <c r="U48" s="1"/>
+    </row>
+    <row customHeight="true" ht="25" r="49">
       <c r="A49" s="1">
         <v>45</v>
       </c>
@@ -1996,10 +2175,12 @@
       <c r="D49" s="1" t="str">
         <v>1|8888</v>
       </c>
-      <c r="E49" s="1" t="str">
+      <c r="E49" s="2" t="str">
+        <v>BananaTail</v>
+      </c>
+      <c r="F49" s="1" t="str">
         <v>香蕉拖尾</v>
       </c>
-      <c r="F49" s="1"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
@@ -2014,8 +2195,9 @@
       <c r="R49" s="1"/>
       <c r="S49" s="1"/>
       <c r="T49" s="1"/>
-    </row>
-    <row customHeight="true" ht="23" r="50">
+      <c r="U49" s="1"/>
+    </row>
+    <row customHeight="true" ht="25" r="50">
       <c r="A50" s="1">
         <v>46</v>
       </c>
@@ -2028,10 +2210,12 @@
       <c r="D50" s="1" t="str">
         <v>1|8888</v>
       </c>
-      <c r="E50" s="1" t="str">
+      <c r="E50" s="2" t="str">
+        <v>ThunderTail</v>
+      </c>
+      <c r="F50" s="1" t="str">
         <v>雷电拖尾</v>
       </c>
-      <c r="F50" s="1"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
@@ -2046,8 +2230,9 @@
       <c r="R50" s="1"/>
       <c r="S50" s="1"/>
       <c r="T50" s="1"/>
-    </row>
-    <row customHeight="true" ht="23" r="51">
+      <c r="U50" s="1"/>
+    </row>
+    <row customHeight="true" ht="25" r="51">
       <c r="A51" s="1">
         <v>47</v>
       </c>
@@ -2060,10 +2245,12 @@
       <c r="D51" s="1" t="str">
         <v>1|8888</v>
       </c>
-      <c r="E51" s="1" t="str">
+      <c r="E51" s="2" t="str">
+        <v>SnowflakeTail</v>
+      </c>
+      <c r="F51" s="1" t="str">
         <v>雪花拖尾</v>
       </c>
-      <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
@@ -2078,8 +2265,9 @@
       <c r="R51" s="1"/>
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
-    </row>
-    <row customHeight="true" ht="23" r="52">
+      <c r="U51" s="1"/>
+    </row>
+    <row customHeight="true" ht="25" r="52">
       <c r="A52" s="1">
         <v>48</v>
       </c>
@@ -2092,10 +2280,12 @@
       <c r="D52" s="1" t="str">
         <v>1|8888</v>
       </c>
-      <c r="E52" s="1" t="str">
+      <c r="E52" s="2" t="str">
+        <v>Tail2023</v>
+      </c>
+      <c r="F52" s="1" t="str">
         <v>2023拖尾</v>
       </c>
-      <c r="F52" s="1"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
@@ -2110,8 +2300,9 @@
       <c r="R52" s="1"/>
       <c r="S52" s="1"/>
       <c r="T52" s="1"/>
-    </row>
-    <row customHeight="true" ht="23" r="53">
+      <c r="U52" s="1"/>
+    </row>
+    <row customHeight="true" ht="25" r="53">
       <c r="A53" s="1">
         <v>49</v>
       </c>
@@ -2124,10 +2315,12 @@
       <c r="D53" s="1" t="str">
         <v>1|8888</v>
       </c>
-      <c r="E53" s="1" t="str">
+      <c r="E53" s="2" t="str">
+        <v>FirecrackerTail</v>
+      </c>
+      <c r="F53" s="1" t="str">
         <v>爆竹拖尾</v>
       </c>
-      <c r="F53" s="1"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
@@ -2142,8 +2335,9 @@
       <c r="R53" s="1"/>
       <c r="S53" s="1"/>
       <c r="T53" s="1"/>
-    </row>
-    <row customHeight="true" ht="23" r="54">
+      <c r="U53" s="1"/>
+    </row>
+    <row customHeight="true" ht="25" r="54">
       <c r="A54" s="1">
         <v>50</v>
       </c>
@@ -2156,10 +2350,12 @@
       <c r="D54" s="1" t="str">
         <v>1|8888</v>
       </c>
-      <c r="E54" s="1" t="str">
+      <c r="E54" s="2" t="str">
+        <v>FireworksTail</v>
+      </c>
+      <c r="F54" s="1" t="str">
         <v>烟花拖尾</v>
       </c>
-      <c r="F54" s="1"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
@@ -2174,8 +2370,9 @@
       <c r="R54" s="1"/>
       <c r="S54" s="1"/>
       <c r="T54" s="1"/>
-    </row>
-    <row customHeight="true" ht="23" r="55">
+      <c r="U54" s="1"/>
+    </row>
+    <row customHeight="true" ht="25" r="55">
       <c r="A55" s="1">
         <v>51</v>
       </c>
@@ -2188,10 +2385,12 @@
       <c r="D55" s="1" t="str">
         <v>1|8888</v>
       </c>
-      <c r="E55" s="1" t="str">
+      <c r="E55" s="2" t="str">
+        <v>GiftTail</v>
+      </c>
+      <c r="F55" s="1" t="str">
         <v>礼物拖尾</v>
       </c>
-      <c r="F55" s="1"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
@@ -2206,8 +2405,9 @@
       <c r="R55" s="1"/>
       <c r="S55" s="1"/>
       <c r="T55" s="1"/>
-    </row>
-    <row customHeight="true" ht="23" r="56">
+      <c r="U55" s="1"/>
+    </row>
+    <row customHeight="true" ht="25" r="56">
       <c r="A56" s="1">
         <v>52</v>
       </c>
@@ -2220,10 +2420,12 @@
       <c r="D56" s="1" t="str">
         <v>1|8888</v>
       </c>
-      <c r="E56" s="1" t="str">
+      <c r="E56" s="2" t="str">
+        <v>TailOfBanknotes</v>
+      </c>
+      <c r="F56" s="1" t="str">
         <v>钞票拖尾</v>
       </c>
-      <c r="F56" s="1"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
@@ -2238,8 +2440,9 @@
       <c r="R56" s="1"/>
       <c r="S56" s="1"/>
       <c r="T56" s="1"/>
-    </row>
-    <row customHeight="true" ht="23" r="57">
+      <c r="U56" s="1"/>
+    </row>
+    <row customHeight="true" ht="25" r="57">
       <c r="A57" s="1">
         <v>53</v>
       </c>
@@ -2252,10 +2455,12 @@
       <c r="D57" s="1" t="str">
         <v>1|8888</v>
       </c>
-      <c r="E57" s="1" t="str">
+      <c r="E57" s="2" t="str">
+        <v>BubbleTail</v>
+      </c>
+      <c r="F57" s="1" t="str">
         <v>泡泡拖尾</v>
       </c>
-      <c r="F57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
@@ -2270,8 +2475,9 @@
       <c r="R57" s="1"/>
       <c r="S57" s="1"/>
       <c r="T57" s="1"/>
-    </row>
-    <row customHeight="true" ht="23" r="58">
+      <c r="U57" s="1"/>
+    </row>
+    <row customHeight="true" ht="25" r="58">
       <c r="A58" s="1">
         <v>54</v>
       </c>
@@ -2284,10 +2490,12 @@
       <c r="D58" s="1" t="str">
         <v>1|8888</v>
       </c>
-      <c r="E58" s="1" t="str">
+      <c r="E58" s="2" t="str">
+        <v>RibbonTrailing</v>
+      </c>
+      <c r="F58" s="1" t="str">
         <v>彩带拖尾</v>
       </c>
-      <c r="F58" s="1"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
@@ -2302,8 +2510,9 @@
       <c r="R58" s="1"/>
       <c r="S58" s="1"/>
       <c r="T58" s="1"/>
-    </row>
-    <row customHeight="true" ht="23" r="59">
+      <c r="U58" s="1"/>
+    </row>
+    <row customHeight="true" ht="25" r="59">
       <c r="A59" s="1">
         <v>55</v>
       </c>
@@ -2316,10 +2525,12 @@
       <c r="D59" s="1" t="str">
         <v>1|8888</v>
       </c>
-      <c r="E59" s="1" t="str">
+      <c r="E59" s="2" t="str">
+        <v>TailOfFeces</v>
+      </c>
+      <c r="F59" s="1" t="str">
         <v>便便拖尾</v>
       </c>
-      <c r="F59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
@@ -2334,8 +2545,9 @@
       <c r="R59" s="1"/>
       <c r="S59" s="1"/>
       <c r="T59" s="1"/>
-    </row>
-    <row customHeight="true" ht="23" r="60">
+      <c r="U59" s="1"/>
+    </row>
+    <row customHeight="true" ht="25" r="60">
       <c r="A60" s="1">
         <v>56</v>
       </c>
@@ -2348,10 +2560,12 @@
       <c r="D60" s="1" t="str">
         <v>1|8888</v>
       </c>
-      <c r="E60" s="1" t="str">
+      <c r="E60" s="2" t="str">
+        <v>MapleLeafTail</v>
+      </c>
+      <c r="F60" s="1" t="str">
         <v>枫叶拖尾</v>
       </c>
-      <c r="F60" s="1"/>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
@@ -2366,8 +2580,9 @@
       <c r="R60" s="1"/>
       <c r="S60" s="1"/>
       <c r="T60" s="1"/>
-    </row>
-    <row customHeight="true" ht="23" r="61">
+      <c r="U60" s="1"/>
+    </row>
+    <row customHeight="true" ht="25" r="61">
       <c r="A61" s="1">
         <v>57</v>
       </c>
@@ -2380,10 +2595,12 @@
       <c r="D61" s="1" t="str">
         <v>1|8888</v>
       </c>
-      <c r="E61" s="1" t="str">
+      <c r="E61" s="2" t="str">
+        <v>SixPointedStarTail</v>
+      </c>
+      <c r="F61" s="1" t="str">
         <v>六芒星拖尾</v>
       </c>
-      <c r="F61" s="1"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
@@ -2398,8 +2615,9 @@
       <c r="R61" s="1"/>
       <c r="S61" s="1"/>
       <c r="T61" s="1"/>
-    </row>
-    <row customHeight="true" ht="23" r="62">
+      <c r="U61" s="1"/>
+    </row>
+    <row customHeight="true" ht="25" r="62">
       <c r="A62" s="1">
         <v>58</v>
       </c>
@@ -2412,10 +2630,12 @@
       <c r="D62" s="1" t="str">
         <v>1|8888</v>
       </c>
-      <c r="E62" s="1" t="str">
+      <c r="E62" s="2" t="str">
+        <v>ButterflyTail</v>
+      </c>
+      <c r="F62" s="1" t="str">
         <v>蝴蝶拖尾</v>
       </c>
-      <c r="F62" s="1"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
@@ -2430,8 +2650,9 @@
       <c r="R62" s="1"/>
       <c r="S62" s="1"/>
       <c r="T62" s="1"/>
-    </row>
-    <row customHeight="true" ht="23" r="63">
+      <c r="U62" s="1"/>
+    </row>
+    <row customHeight="true" ht="25" r="63">
       <c r="A63" s="1">
         <v>59</v>
       </c>
@@ -2444,10 +2665,12 @@
       <c r="D63" s="1" t="str">
         <v>1|8888</v>
       </c>
-      <c r="E63" s="1" t="str">
+      <c r="E63" s="2" t="str">
+        <v>IceCreamTrail</v>
+      </c>
+      <c r="F63" s="1" t="str">
         <v>冰淇淋拖尾</v>
       </c>
-      <c r="F63" s="1"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
@@ -2462,8 +2685,9 @@
       <c r="R63" s="1"/>
       <c r="S63" s="1"/>
       <c r="T63" s="1"/>
-    </row>
-    <row customHeight="true" ht="23" r="64">
+      <c r="U63" s="1"/>
+    </row>
+    <row customHeight="true" ht="25" r="64">
       <c r="A64" s="1">
         <v>60</v>
       </c>
@@ -2476,10 +2700,12 @@
       <c r="D64" s="1" t="str">
         <v>1|8888</v>
       </c>
-      <c r="E64" s="1" t="str">
+      <c r="E64" s="2" t="str">
+        <v>BirdTail</v>
+      </c>
+      <c r="F64" s="1" t="str">
         <v>鸟拖尾</v>
       </c>
-      <c r="F64" s="1"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
@@ -2494,8 +2720,9 @@
       <c r="R64" s="1"/>
       <c r="S64" s="1"/>
       <c r="T64" s="1"/>
-    </row>
-    <row customHeight="true" ht="23" r="65">
+      <c r="U64" s="1"/>
+    </row>
+    <row customHeight="true" ht="25" r="65">
       <c r="A65" s="1">
         <v>61</v>
       </c>
@@ -2508,10 +2735,12 @@
       <c r="D65" s="1" t="str">
         <v>1|8888</v>
       </c>
-      <c r="E65" s="1" t="str">
+      <c r="E65" s="2" t="str">
+        <v>BatTail</v>
+      </c>
+      <c r="F65" s="1" t="str">
         <v>蝙蝠拖尾</v>
       </c>
-      <c r="F65" s="1"/>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
@@ -2526,8 +2755,9 @@
       <c r="R65" s="1"/>
       <c r="S65" s="1"/>
       <c r="T65" s="1"/>
-    </row>
-    <row customHeight="true" ht="23" r="66">
+      <c r="U65" s="1"/>
+    </row>
+    <row customHeight="true" ht="25" r="66">
       <c r="A66" s="1">
         <v>62</v>
       </c>
@@ -2540,10 +2770,12 @@
       <c r="D66" s="1" t="str">
         <v>1|8888</v>
       </c>
-      <c r="E66" s="1" t="str">
+      <c r="E66" s="2" t="str">
+        <v>XiangyunTail</v>
+      </c>
+      <c r="F66" s="1" t="str">
         <v>祥云拖尾</v>
       </c>
-      <c r="F66" s="1"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
@@ -2558,8 +2790,9 @@
       <c r="R66" s="1"/>
       <c r="S66" s="1"/>
       <c r="T66" s="1"/>
-    </row>
-    <row customHeight="true" ht="23" r="67">
+      <c r="U66" s="1"/>
+    </row>
+    <row customHeight="true" ht="25" r="67">
       <c r="A67" s="1">
         <v>63</v>
       </c>
@@ -2572,10 +2805,12 @@
       <c r="D67" s="1" t="str">
         <v>1|8888</v>
       </c>
-      <c r="E67" s="1" t="str">
+      <c r="E67" s="2" t="str">
+        <v>Print</v>
+      </c>
+      <c r="F67" s="1" t="str">
         <v>爪印</v>
       </c>
-      <c r="F67" s="1"/>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
@@ -2590,6 +2825,7 @@
       <c r="R67" s="1"/>
       <c r="S67" s="1"/>
       <c r="T67" s="1"/>
+      <c r="U67" s="1"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
